--- a/Studies/ChatGPT/sample/퀵VBA-15-ChatGPT-x-엑셀-연동하기-실습-예제파일.xlsx
+++ b/Studies/ChatGPT/sample/퀵VBA-15-ChatGPT-x-엑셀-연동하기-실습-예제파일.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="현재_통합_문서" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dropbox\9. 내 드롭박스\@. #오빠두\@ 엑셀 - 영상강의\1d_엑셀 VBA 강의\1b_퀵 VBA 강의\퀵VBA14강 ChatGPT 엑셀 자동화 매크로\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Git\Data_Analysis\Studies\ChatGPT\sample\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1FE38BB-4DDC-4086-9CBF-8DAB37E37E47}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2870A455-6C1E-4013-9E7F-460759BBFF0E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{D0CD3D2C-EE0E-4448-B708-62CDF3307F23}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="41496" windowHeight="16896" xr2:uid="{D0CD3D2C-EE0E-4448-B708-62CDF3307F23}"/>
   </bookViews>
   <sheets>
     <sheet name="간단질문" sheetId="8" r:id="rId1"/>
@@ -543,6 +543,12 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -558,15 +564,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -579,11 +576,14 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -9441,29 +9441,31 @@
   <sheetPr codeName="Sheet8"/>
   <dimension ref="B1:H18"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="12" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.69921875" defaultRowHeight="13.2" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="5" style="1" customWidth="1"/>
-    <col min="2" max="2" width="18.875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="51.75" style="1" customWidth="1"/>
-    <col min="4" max="16384" width="8.75" style="1"/>
+    <col min="2" max="2" width="18.8984375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="51.69921875" style="1" customWidth="1"/>
+    <col min="4" max="16384" width="8.69921875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:8" ht="10.9" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="2:8" ht="41.45" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:8" ht="10.95" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="2" spans="2:8" ht="41.4" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C2"/>
     </row>
-    <row r="3" spans="2:8" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="4" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="5" spans="2:8" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:8" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="4" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="5" spans="2:8" ht="33" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B5" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C5" s="3"/>
     </row>
-    <row r="6" spans="2:8" ht="23.45" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:8" ht="23.4" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B6" s="2" t="s">
         <v>1</v>
       </c>
@@ -9471,43 +9473,43 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="2:8" ht="34.15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:8" ht="34.200000000000003" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B7" s="5"/>
       <c r="C7" s="6"/>
     </row>
-    <row r="8" spans="2:8" ht="212.45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="35"/>
-      <c r="C8" s="36"/>
+    <row r="8" spans="2:8" ht="212.4" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B8" s="37"/>
+      <c r="C8" s="38"/>
       <c r="D8"/>
       <c r="E8"/>
       <c r="F8"/>
       <c r="H8"/>
     </row>
-    <row r="9" spans="2:8" ht="11.45" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:8" ht="11.4" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B9" s="16"/>
     </row>
-    <row r="10" spans="2:8" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:8" ht="24.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B10" s="16"/>
     </row>
-    <row r="11" spans="2:8" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:8" ht="24.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B11" s="16"/>
     </row>
-    <row r="12" spans="2:8" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:8" ht="24.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B12" s="16"/>
     </row>
-    <row r="13" spans="2:8" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:8" ht="24.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B13" s="16"/>
     </row>
-    <row r="14" spans="2:8" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:8" ht="24.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B14" s="16"/>
     </row>
-    <row r="15" spans="2:8" ht="22.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:8" ht="22.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B15" s="16"/>
     </row>
-    <row r="16" spans="2:8" ht="23.45" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:8" ht="23.4" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B16" s="16"/>
     </row>
-    <row r="18" spans="2:2" ht="23.45" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:2" ht="23.4" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B18" s="16"/>
     </row>
   </sheetData>
@@ -9533,21 +9535,21 @@
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="130" zoomScaleNormal="130" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" outlineLevelRow="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" outlineLevelRow="1" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="6.375" customWidth="1"/>
+    <col min="1" max="1" width="6.3984375" customWidth="1"/>
     <col min="2" max="2" width="24.5" customWidth="1"/>
-    <col min="3" max="3" width="42.25" customWidth="1"/>
+    <col min="3" max="3" width="42.19921875" customWidth="1"/>
     <col min="4" max="4" width="2.5" customWidth="1"/>
-    <col min="5" max="5" width="6.625" style="32" customWidth="1"/>
+    <col min="5" max="5" width="6.59765625" style="32" customWidth="1"/>
     <col min="6" max="6" width="37.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:6" ht="8.4499999999999993" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="2:6" ht="40.15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="3" spans="2:6" ht="34.15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="4" spans="2:6" ht="22.15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="5" spans="2:6" ht="23.45" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:6" ht="8.4" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="2" spans="2:6" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="3" spans="2:6" ht="34.200000000000003" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="4" spans="2:6" ht="22.2" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="5" spans="2:6" ht="23.4" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B5" s="11" t="s">
         <v>2</v>
       </c>
@@ -9561,7 +9563,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="2:6" ht="23.45" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:6" ht="23.4" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B6" s="11" t="s">
         <v>3</v>
       </c>
@@ -9575,7 +9577,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="7" spans="2:6" ht="23.45" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:6" ht="23.4" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B7" s="11" t="s">
         <v>9</v>
       </c>
@@ -9589,15 +9591,15 @@
         <v>24</v>
       </c>
     </row>
-    <row r="8" spans="2:6" ht="23.45" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:6" ht="23.4" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B8" s="11" t="s">
         <v>26</v>
       </c>
       <c r="C8" s="13"/>
-      <c r="E8" s="47"/>
-      <c r="F8" s="48"/>
+      <c r="E8" s="35"/>
+      <c r="F8" s="36"/>
     </row>
-    <row r="9" spans="2:6" ht="23.45" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:6" ht="23.4" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="B9" s="2" t="s">
         <v>11</v>
       </c>
@@ -9606,7 +9608,7 @@
         <v>hashtags in instagram</v>
       </c>
     </row>
-    <row r="10" spans="2:6" ht="33.6" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:6" ht="33.6" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="B10" s="10" t="s">
         <v>4</v>
       </c>
@@ -9615,7 +9617,7 @@
         <v>create 5 popular hashtags in instagram related to the keyword : '신촌 데이트, 놀이터, 맛집, 돈까스' with each item separated by a comma</v>
       </c>
     </row>
-    <row r="11" spans="2:6" ht="23.45" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:6" ht="23.4" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="B11" s="2" t="s">
         <v>1</v>
       </c>
@@ -9623,76 +9625,76 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="12" spans="2:6" ht="33.6" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="13" spans="2:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:6" ht="33.6" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="13" spans="2:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B13" s="34"/>
       <c r="C13" s="15"/>
     </row>
-    <row r="14" spans="2:6" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:6" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B14" s="22"/>
       <c r="C14" s="17"/>
     </row>
-    <row r="15" spans="2:6" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:6" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B15" s="22"/>
       <c r="C15" s="17"/>
     </row>
-    <row r="16" spans="2:6" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:6" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B16" s="22"/>
       <c r="C16" s="17"/>
     </row>
-    <row r="17" spans="2:3" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B17" s="22"/>
       <c r="C17" s="18"/>
     </row>
-    <row r="18" spans="2:3" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B18" s="22"/>
       <c r="C18" s="17"/>
     </row>
-    <row r="19" spans="2:3" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B19" s="22"/>
       <c r="C19" s="17"/>
     </row>
-    <row r="20" spans="2:3" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B20" s="22"/>
       <c r="C20" s="17"/>
     </row>
-    <row r="21" spans="2:3" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B21" s="22"/>
       <c r="C21" s="17"/>
     </row>
-    <row r="22" spans="2:3" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B22" s="22"/>
       <c r="C22" s="15"/>
     </row>
-    <row r="23" spans="2:3" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B23" s="22"/>
       <c r="C23" s="17"/>
     </row>
-    <row r="24" spans="2:3" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B24" s="22"/>
       <c r="C24" s="17"/>
     </row>
-    <row r="25" spans="2:3" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B25" s="22"/>
       <c r="C25" s="17"/>
     </row>
-    <row r="26" spans="2:3" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B26" s="22"/>
       <c r="C26" s="18"/>
     </row>
-    <row r="27" spans="2:3" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B27" s="22"/>
       <c r="C27" s="17"/>
     </row>
-    <row r="28" spans="2:3" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B28" s="22"/>
       <c r="C28" s="17"/>
     </row>
-    <row r="29" spans="2:3" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B29" s="22"/>
       <c r="C29" s="17"/>
     </row>
-    <row r="30" spans="2:3" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B30" s="22"/>
       <c r="C30" s="17"/>
     </row>
@@ -9718,23 +9720,23 @@
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="130" zoomScaleNormal="130" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" outlineLevelRow="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" outlineLevelRow="1" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="6.625" customWidth="1"/>
+    <col min="1" max="1" width="6.59765625" customWidth="1"/>
     <col min="2" max="2" width="24.5" customWidth="1"/>
-    <col min="3" max="3" width="52.125" customWidth="1"/>
+    <col min="3" max="3" width="52.09765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:3" ht="13.15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="2:3" ht="58.9" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="3" spans="2:3" ht="31.9" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="4" spans="2:3" ht="174.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:3" ht="13.2" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="2" spans="2:3" ht="58.95" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="3" spans="2:3" ht="31.95" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="4" spans="2:3" ht="174.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B4" s="19" t="s">
         <v>6</v>
       </c>
       <c r="C4" s="20"/>
     </row>
-    <row r="5" spans="2:3" ht="23.45" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:3" ht="23.4" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B5" s="2" t="s">
         <v>5</v>
       </c>
@@ -9742,7 +9744,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="2:3" ht="27.6" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:3" ht="27.6" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="B6" s="8" t="s">
         <v>4</v>
       </c>
@@ -9752,77 +9754,82 @@
 </v>
       </c>
     </row>
-    <row r="7" spans="2:3" ht="40.9" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="8" spans="2:3" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="37"/>
-      <c r="C8" s="38"/>
+    <row r="7" spans="2:3" ht="40.950000000000003" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="8" spans="2:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B8" s="39"/>
+      <c r="C8" s="40"/>
     </row>
-    <row r="9" spans="2:3" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="37"/>
-      <c r="C9" s="38"/>
+    <row r="9" spans="2:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B9" s="39"/>
+      <c r="C9" s="40"/>
     </row>
-    <row r="10" spans="2:3" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="37"/>
-      <c r="C10" s="38"/>
+    <row r="10" spans="2:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B10" s="39"/>
+      <c r="C10" s="40"/>
     </row>
-    <row r="11" spans="2:3" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="37"/>
-      <c r="C11" s="38"/>
+    <row r="11" spans="2:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B11" s="39"/>
+      <c r="C11" s="40"/>
     </row>
-    <row r="12" spans="2:3" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="37"/>
-      <c r="C12" s="38"/>
+    <row r="12" spans="2:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B12" s="39"/>
+      <c r="C12" s="40"/>
     </row>
-    <row r="13" spans="2:3" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="37"/>
-      <c r="C13" s="38"/>
+    <row r="13" spans="2:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B13" s="39"/>
+      <c r="C13" s="40"/>
     </row>
-    <row r="14" spans="2:3" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="37"/>
-      <c r="C14" s="38"/>
+    <row r="14" spans="2:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B14" s="39"/>
+      <c r="C14" s="40"/>
     </row>
-    <row r="15" spans="2:3" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="37"/>
-      <c r="C15" s="38"/>
+    <row r="15" spans="2:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B15" s="39"/>
+      <c r="C15" s="40"/>
     </row>
-    <row r="16" spans="2:3" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="37"/>
-      <c r="C16" s="38"/>
+    <row r="16" spans="2:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B16" s="39"/>
+      <c r="C16" s="40"/>
     </row>
-    <row r="17" spans="2:3" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="37"/>
-      <c r="C17" s="38"/>
+    <row r="17" spans="2:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B17" s="39"/>
+      <c r="C17" s="40"/>
     </row>
-    <row r="18" spans="2:3" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="37"/>
-      <c r="C18" s="38"/>
+    <row r="18" spans="2:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B18" s="39"/>
+      <c r="C18" s="40"/>
     </row>
-    <row r="19" spans="2:3" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="37"/>
-      <c r="C19" s="38"/>
+    <row r="19" spans="2:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B19" s="39"/>
+      <c r="C19" s="40"/>
     </row>
-    <row r="20" spans="2:3" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="37"/>
-      <c r="C20" s="38"/>
+    <row r="20" spans="2:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B20" s="39"/>
+      <c r="C20" s="40"/>
     </row>
-    <row r="21" spans="2:3" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B21" s="37"/>
-      <c r="C21" s="38"/>
+    <row r="21" spans="2:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B21" s="39"/>
+      <c r="C21" s="40"/>
     </row>
-    <row r="22" spans="2:3" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B22" s="37"/>
-      <c r="C22" s="38"/>
+    <row r="22" spans="2:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B22" s="39"/>
+      <c r="C22" s="40"/>
     </row>
-    <row r="23" spans="2:3" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B23" s="37"/>
-      <c r="C23" s="38"/>
+    <row r="23" spans="2:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B23" s="39"/>
+      <c r="C23" s="40"/>
     </row>
-    <row r="24" spans="2:3" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B24" s="37"/>
-      <c r="C24" s="38"/>
+    <row r="24" spans="2:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B24" s="39"/>
+      <c r="C24" s="40"/>
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="B24:C24"/>
     <mergeCell ref="B19:C19"/>
     <mergeCell ref="B8:C8"/>
     <mergeCell ref="B9:C9"/>
@@ -9835,11 +9842,6 @@
     <mergeCell ref="B16:C16"/>
     <mergeCell ref="B17:C17"/>
     <mergeCell ref="B18:C18"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="B24:C24"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -9854,29 +9856,29 @@
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="130" zoomScaleNormal="130" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" outlineLevelRow="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" outlineLevelRow="1" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="2" max="2" width="24.5" customWidth="1"/>
-    <col min="3" max="3" width="52.125" customWidth="1"/>
+    <col min="3" max="3" width="52.09765625" customWidth="1"/>
     <col min="4" max="4" width="4.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:5" x14ac:dyDescent="0.4">
       <c r="E1" s="21"/>
     </row>
-    <row r="2" spans="2:5" ht="72.599999999999994" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:5" ht="72.599999999999994" customHeight="1" x14ac:dyDescent="0.4">
       <c r="E2" s="21"/>
     </row>
-    <row r="3" spans="2:5" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:5" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="E3" s="21"/>
     </row>
-    <row r="4" spans="2:5" ht="233.45" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:5" ht="233.4" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B4" s="19" t="s">
         <v>7</v>
       </c>
       <c r="C4" s="20"/>
     </row>
-    <row r="5" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B5" s="2" t="s">
         <v>8</v>
       </c>
@@ -9884,7 +9886,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="2:5" ht="36" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:5" ht="39.6" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="B6" s="8" t="s">
         <v>4</v>
       </c>
@@ -9894,72 +9896,66 @@
 </v>
       </c>
     </row>
-    <row r="7" spans="2:5" ht="36.6" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="8" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B8" s="37"/>
-      <c r="C8" s="38"/>
+    <row r="7" spans="2:5" ht="36.6" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="8" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B8" s="39"/>
+      <c r="C8" s="40"/>
     </row>
-    <row r="9" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B9" s="37"/>
-      <c r="C9" s="38"/>
+    <row r="9" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B9" s="39"/>
+      <c r="C9" s="40"/>
     </row>
-    <row r="10" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B10" s="37"/>
-      <c r="C10" s="38"/>
+    <row r="10" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B10" s="39"/>
+      <c r="C10" s="40"/>
     </row>
-    <row r="11" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B11" s="37"/>
-      <c r="C11" s="38"/>
+    <row r="11" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B11" s="39"/>
+      <c r="C11" s="40"/>
     </row>
-    <row r="12" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B12" s="37"/>
-      <c r="C12" s="38"/>
+    <row r="12" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B12" s="39"/>
+      <c r="C12" s="40"/>
     </row>
-    <row r="13" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B13" s="37"/>
-      <c r="C13" s="38"/>
+    <row r="13" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B13" s="39"/>
+      <c r="C13" s="40"/>
     </row>
-    <row r="14" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B14" s="37"/>
-      <c r="C14" s="38"/>
+    <row r="14" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B14" s="39"/>
+      <c r="C14" s="40"/>
     </row>
-    <row r="15" spans="2:5" ht="31.9" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="16" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B16" s="39"/>
-      <c r="C16" s="38"/>
+    <row r="15" spans="2:5" ht="31.95" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="16" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B16" s="41"/>
+      <c r="C16" s="40"/>
     </row>
-    <row r="17" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B17" s="39"/>
-      <c r="C17" s="38"/>
+    <row r="17" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B17" s="41"/>
+      <c r="C17" s="40"/>
     </row>
-    <row r="18" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B18" s="39"/>
-      <c r="C18" s="38"/>
+    <row r="18" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B18" s="41"/>
+      <c r="C18" s="40"/>
     </row>
-    <row r="19" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B19" s="39"/>
-      <c r="C19" s="38"/>
+    <row r="19" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B19" s="41"/>
+      <c r="C19" s="40"/>
     </row>
-    <row r="20" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B20" s="39"/>
-      <c r="C20" s="38"/>
+    <row r="20" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B20" s="41"/>
+      <c r="C20" s="40"/>
     </row>
-    <row r="21" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B21" s="39"/>
-      <c r="C21" s="38"/>
+    <row r="21" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B21" s="41"/>
+      <c r="C21" s="40"/>
     </row>
-    <row r="22" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B22" s="39"/>
-      <c r="C22" s="38"/>
+    <row r="22" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B22" s="41"/>
+      <c r="C22" s="40"/>
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="B12:C12"/>
     <mergeCell ref="B21:C21"/>
     <mergeCell ref="B22:C22"/>
     <mergeCell ref="B14:C14"/>
@@ -9968,6 +9964,12 @@
     <mergeCell ref="B18:C18"/>
     <mergeCell ref="B19:C19"/>
     <mergeCell ref="B20:C20"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="B12:C12"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -9982,25 +9984,25 @@
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="130" zoomScaleNormal="130" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" outlineLevelRow="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" outlineLevelRow="1" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="8.25" customWidth="1"/>
+    <col min="1" max="1" width="8.19921875" customWidth="1"/>
     <col min="2" max="2" width="17" customWidth="1"/>
-    <col min="3" max="3" width="53.875" customWidth="1"/>
-    <col min="4" max="4" width="2.125" customWidth="1"/>
+    <col min="3" max="3" width="53.8984375" customWidth="1"/>
+    <col min="4" max="4" width="2.09765625" customWidth="1"/>
     <col min="5" max="5" width="94" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:5" x14ac:dyDescent="0.4">
       <c r="E1" s="21"/>
     </row>
-    <row r="2" spans="2:5" ht="72.599999999999994" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:5" ht="72.599999999999994" customHeight="1" x14ac:dyDescent="0.4">
       <c r="E2" s="21"/>
     </row>
-    <row r="3" spans="2:5" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:5" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="E3" s="21"/>
     </row>
-    <row r="4" spans="2:5" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B4" s="23" t="s">
         <v>18</v>
       </c>
@@ -10009,7 +10011,7 @@
       </c>
       <c r="E4" s="21"/>
     </row>
-    <row r="5" spans="2:5" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:5" ht="19.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B5" s="26" t="s">
         <v>12</v>
       </c>
@@ -10018,74 +10020,74 @@
         <v>19</v>
       </c>
     </row>
-    <row r="6" spans="2:5" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="40"/>
-      <c r="C6" s="38"/>
+    <row r="6" spans="2:5" ht="19.2" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B6" s="46"/>
+      <c r="C6" s="40"/>
       <c r="E6" s="24" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="7" spans="2:5" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="40"/>
-      <c r="C7" s="38"/>
+    <row r="7" spans="2:5" ht="19.2" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B7" s="46"/>
+      <c r="C7" s="40"/>
       <c r="E7" s="24" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="8" spans="2:5" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="40"/>
-      <c r="C8" s="38"/>
+    <row r="8" spans="2:5" ht="19.2" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B8" s="46"/>
+      <c r="C8" s="40"/>
       <c r="E8" s="24" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="2:5" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="40"/>
-      <c r="C9" s="38"/>
+    <row r="9" spans="2:5" ht="19.2" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B9" s="46"/>
+      <c r="C9" s="40"/>
       <c r="E9" s="24" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="10" spans="2:5" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="40"/>
-      <c r="C10" s="38"/>
+    <row r="10" spans="2:5" ht="19.2" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B10" s="46"/>
+      <c r="C10" s="40"/>
     </row>
-    <row r="11" spans="2:5" ht="19.149999999999999" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="45" t="str" cm="1">
+    <row r="11" spans="2:5" ht="19.2" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.4">
+      <c r="B11" s="44" t="str" cm="1">
         <f t="array" ref="B11">GoogleTranslate(B6,"ko","en")</f>
         <v/>
       </c>
-      <c r="C11" s="46"/>
+      <c r="C11" s="45"/>
     </row>
-    <row r="12" spans="2:5" ht="19.149999999999999" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="45" t="str" cm="1">
+    <row r="12" spans="2:5" ht="19.2" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.4">
+      <c r="B12" s="44" t="str" cm="1">
         <f t="array" ref="B12">GoogleTranslate(B7,"ko","en")</f>
         <v/>
       </c>
-      <c r="C12" s="46"/>
+      <c r="C12" s="45"/>
     </row>
-    <row r="13" spans="2:5" ht="19.149999999999999" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="45" t="str" cm="1">
+    <row r="13" spans="2:5" ht="19.2" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.4">
+      <c r="B13" s="44" t="str" cm="1">
         <f t="array" ref="B13">GoogleTranslate(B8,"ko","en")</f>
         <v/>
       </c>
-      <c r="C13" s="46"/>
+      <c r="C13" s="45"/>
     </row>
-    <row r="14" spans="2:5" ht="19.149999999999999" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="45" t="str" cm="1">
+    <row r="14" spans="2:5" ht="19.2" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.4">
+      <c r="B14" s="44" t="str" cm="1">
         <f t="array" ref="B14">GoogleTranslate(B9,"ko","en")</f>
         <v/>
       </c>
-      <c r="C14" s="46"/>
+      <c r="C14" s="45"/>
     </row>
-    <row r="15" spans="2:5" ht="19.149999999999999" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="41" t="str" cm="1">
+    <row r="15" spans="2:5" ht="19.2" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.4">
+      <c r="B15" s="47" t="str" cm="1">
         <f t="array" ref="B15">GoogleTranslate(B10,"ko","en")</f>
         <v/>
       </c>
-      <c r="C15" s="42"/>
+      <c r="C15" s="48"/>
     </row>
-    <row r="16" spans="2:5" ht="97.15" customHeight="1" collapsed="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:5" ht="97.2" customHeight="1" collapsed="1" x14ac:dyDescent="0.4">
       <c r="B16" s="2" t="s">
         <v>4</v>
       </c>
@@ -10095,30 +10097,30 @@
 </v>
       </c>
     </row>
-    <row r="17" spans="2:6" ht="36.6" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="18" spans="2:6" ht="409.15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="43"/>
-      <c r="C18" s="44"/>
+    <row r="17" spans="2:6" ht="36.6" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="18" spans="2:6" ht="409.2" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B18" s="42"/>
+      <c r="C18" s="43"/>
       <c r="E18" s="29" t="str" cm="1">
         <f t="array" ref="E18">IF(B18="","결과 없음",GoogleTranslate(B18))</f>
         <v>결과 없음</v>
       </c>
       <c r="F18" s="30"/>
     </row>
-    <row r="19" spans="2:6" ht="25.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="19" spans="2:6" ht="25.95" customHeight="1" x14ac:dyDescent="0.4"/>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="B15:C15"/>
     <mergeCell ref="B18:C18"/>
     <mergeCell ref="B11:C11"/>
     <mergeCell ref="B10:C10"/>
     <mergeCell ref="B12:C12"/>
     <mergeCell ref="B13:C13"/>
     <mergeCell ref="B14:C14"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="B15:C15"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="1">
